--- a/medicine/Mort/Mort_par_ventilateur/Mort_par_ventilateur.xlsx
+++ b/medicine/Mort/Mort_par_ventilateur/Mort_par_ventilateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mort par ventilateur est une croyance répandue en Corée du Sud qu'un ventilateur électrique en fonctionnement dans une chambre close peut entraîner la mort de celui qui y dort. 
-Les ventilateurs vendus en Corée sont équipés d'une minuterie, évitant ainsi aux ventilateurs de fonctionner toute la nuit. Le gouvernement sud-coréen recommande d'activer un tel minuteur ou bien de laisser la porte de sa chambre ouverte[1].
+Les ventilateurs vendus en Corée sont équipés d'une minuterie, évitant ainsi aux ventilateurs de fonctionner toute la nuit. Le gouvernement sud-coréen recommande d'activer un tel minuteur ou bien de laisser la porte de sa chambre ouverte.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Hypothèses explicatives</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les explications sont multiples : asphyxie[1],[2],[3],[4], hypothermie[2], hyperthermie, déshydratation ou une combinaison de ces causes. Aucune étude scientifique n'a confirmé ces hypothèses.
-Divers experts en santé ont conseillé à des patients insomniaques en raison d'un syndrome de stress post-traumatique d'installer un ventilateur, en tant que source de bruit blanc dans leur chambre, pour induire le sommeil, suggestion qui semble avoir eu une certaine efficacité selon H.H. López et al.[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les explications sont multiples : asphyxie hypothermie, hyperthermie, déshydratation ou une combinaison de ces causes. Aucune étude scientifique n'a confirmé ces hypothèses.
+Divers experts en santé ont conseillé à des patients insomniaques en raison d'un syndrome de stress post-traumatique d'installer un ventilateur, en tant que source de bruit blanc dans leur chambre, pour induire le sommeil, suggestion qui semble avoir eu une certaine efficacité selon H.H. López et al.
 Une autre hypothèse serait que, les ventilateurs étant utilisés quand il fait très chaud et les personnes décédées étant le plus souvent âgées, il ne s'agisse que d'un effet d'une vague de chaleur. Le système de thermorégulation est brouillé et les mécanismes de défense du corps humain peuvent finir par entraîner la mort.
 </t>
         </is>
